--- a/public/plantilla/P-DA-01-F-08 Plan de Trabajo de Actividades Sustantivas.xlsx
+++ b/public/plantilla/P-DA-01-F-08 Plan de Trabajo de Actividades Sustantivas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ae\public\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E44989BC-DAB1-4AE8-8FB7-175ED9FCA6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D4640F-1110-467D-BC97-3E2DB9299F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$L$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$L$60</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -440,31 +440,52 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -479,12 +500,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,74 +550,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,50 +637,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="8 Imagen" descr="C:\Users\luis.perezgr\AppData\Local\Microsoft\Windows\INetCache\Content.Word\SEP_HOTIZONTAL_FB.PNG">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2209800" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -706,7 +662,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -750,7 +706,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -763,6 +719,59 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>807358</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>587856</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>828184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="8 Imagen" descr="C:\Users\luis.perezgr\AppData\Local\Microsoft\Windows\INetCache\Content.Word\SEP_HOTIZONTAL_FB.PNG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74465A88-9FD0-439C-93B5-2004EB911EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="26453" t="29274" r="25989" b="29710"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="807358" y="272143"/>
+          <a:ext cx="2211641" cy="737470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1057,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW36"/>
+  <dimension ref="A1:AW65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -1178,19 +1187,19 @@
       <c r="AW2" s="5"/>
     </row>
     <row r="3" spans="1:49" s="3" customFormat="1" ht="27.5" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1231,14 +1240,14 @@
       <c r="AW3" s="5"/>
     </row>
     <row r="4" spans="1:49" ht="21" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1248,61 +1257,61 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:49" ht="29.25" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:49" ht="16.5" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="24" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="18" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="58" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="16.5" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="19" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:49" s="6" customFormat="1" ht="78" customHeight="1">
       <c r="A8" s="17" t="s">
@@ -1323,345 +1332,780 @@
       <c r="F8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:49" ht="15.5" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="51"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:49" ht="15.5" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="51"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:49" ht="15.5" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="51"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:49" ht="15.5" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="51"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:49" ht="16.5" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="51"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:49" ht="21" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="51"/>
-    </row>
-    <row r="15" spans="1:49" ht="22.5" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="1:49" ht="26" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="51"/>
-    </row>
-    <row r="17" spans="1:12" ht="17.5" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="51"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="58"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="58"/>
-    </row>
-    <row r="21" spans="1:12" ht="22" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="60"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A22" s="59"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="60"/>
-    </row>
-    <row r="23" spans="1:12" ht="39" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:49" ht="21" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:49" ht="21" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="21" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" ht="21" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" ht="21" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" ht="21" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" ht="21" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" ht="21" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" ht="21" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="21" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" ht="21" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" ht="21" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" ht="21" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" ht="21" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" ht="21" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" ht="21" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" ht="21" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" ht="21" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" ht="21" customHeight="1">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" ht="21" customHeight="1">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" ht="21" customHeight="1">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" ht="21" customHeight="1">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" ht="21" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="1:13" ht="21" customHeight="1">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="1:13" ht="21" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" ht="21" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="1:13" ht="21" customHeight="1">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" ht="26" customHeight="1">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" ht="17.5" customHeight="1">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="46" spans="1:13" ht="17.5" customHeight="1">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="55"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="55"/>
+    </row>
+    <row r="50" spans="1:12" ht="22" customHeight="1">
+      <c r="A50" s="31"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="32"/>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="32"/>
+    </row>
+    <row r="52" spans="1:12" ht="39" customHeight="1">
+      <c r="A52" s="56"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="46"/>
-    </row>
-    <row r="24" spans="1:12" ht="72" customHeight="1">
-      <c r="A24" s="33" t="s">
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="1:12" ht="72" customHeight="1">
+      <c r="A53" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="37" t="s">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="7" t="s">
+      <c r="F53" s="53"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="12" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="13" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="13" t="s">
+    <row r="59" spans="1:12">
+      <c r="A59" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" s="8"/>
+    <row r="63" spans="1:12">
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
     <mergeCell ref="A6:F7"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.68055555555556002" bottom="0.74803149606299002" header="0.41319444444443998" footer="0.31496062992126"/>
   <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
